--- a/inst/extdata/testDataerror2.xlsx
+++ b/inst/extdata/testDataerror2.xlsx
@@ -91,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="B1dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,33 +110,20 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="18"/>
-      <color rgb="FFC00000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9C5AD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -469,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,9 +518,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,19 +530,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,7 +927,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,7 +938,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.2"/>
@@ -977,7 +961,7 @@
       <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -994,7 +978,7 @@
       <c r="C2" s="11">
         <v>41794</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="26"/>
@@ -1012,10 +996,10 @@
       <c r="C3" s="2">
         <v>41794</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,10 +1012,10 @@
       <c r="C4" s="2">
         <v>41793</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1030,8 @@
       <c r="C5" s="2">
         <v>41793</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
@@ -1060,10 +1044,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -1080,14 +1064,14 @@
       <c r="C7" s="2">
         <v>41794</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -1096,16 +1080,16 @@
       <c r="C8" s="2">
         <v>41799</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1114,14 +1098,14 @@
       <c r="C9" s="2">
         <v>41799</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1130,10 +1114,10 @@
       <c r="C10" s="2">
         <v>41794</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="15" t="s">
         <v>9</v>
       </c>
@@ -1148,10 +1132,10 @@
       <c r="C11" s="2">
         <v>41802</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="15" t="s">
         <v>12</v>
       </c>
@@ -1167,8 +1151,8 @@
       <c r="C12" s="19">
         <v>41802</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="20" t="s">
         <v>9</v>
       </c>
